--- a/EngLift.WebAPI/wwwroot/excel/sampleimport.xlsx
+++ b/EngLift.WebAPI/wwwroot/excel/sampleimport.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huulu\Documents\englift\englift-api\EngLift.WebAPI\wwwroot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
@@ -14,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Từ vựng</t>
   </si>
   <si>
-    <t>Phiên âm</t>
-  </si>
-  <si>
     <t>Dịch nghĩa</t>
   </si>
   <si>
@@ -32,6 +34,12 @@
   </si>
   <si>
     <t>LessonId</t>
+  </si>
+  <si>
+    <t>Phiên Âm</t>
+  </si>
+  <si>
+    <t>Hán Hàn</t>
   </si>
 </sst>
 </file>
@@ -95,6 +103,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -142,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,23 +397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,16 +422,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
